--- a/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7E0B66-F50A-43A9-90AB-8220063FB75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD9EBF-AEDF-41AB-B41B-E76CA4B1E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1916,22 +1916,22 @@
     <t>subject_application_version: 2.2.2</t>
   </si>
   <si>
-    <t>2025-02-06T17:08:29Z</t>
-  </si>
-  <si>
-    <t>7ee393d9a2886c68</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.62ace5e45ca07fd937d219e7b19e78f5c1a2cc52812fafea50601f7aed8f0f3d.b2a733f0fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7e50652b13280855</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.adde2fdabc7f3af215d9e4a991e0aae03735a8e4bc019757cdb461465df55e43.5a23422095^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-02-06T17:08:38Z</t>
+    <t>2025-02-13T20:10:53Z</t>
+  </si>
+  <si>
+    <t>793644a7ff92fdd6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.2b720829747709bf00c4c8db1948ad7dd49e249108b408e9c392f7b89feb0633.5df52a8bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-02-13T20:11:03Z</t>
+  </si>
+  <si>
+    <t>4eab32afc56c1c50</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.5f3e81d01d94319fa2d954e7e128e8b37424e9393f83e4974e395ece735bbe5a.b9993e785c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4346,10 +4346,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
+      <selection pane="bottomRight" activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12347,7 +12347,7 @@
         <v>322</v>
       </c>
       <c r="F215" s="54">
-        <v>45694</v>
+        <v>45701</v>
       </c>
       <c r="G215" s="55" t="s">
         <v>496</v>
@@ -12394,16 +12394,16 @@
         <v>323</v>
       </c>
       <c r="F216" s="54">
-        <v>45694</v>
+        <v>45701</v>
       </c>
       <c r="G216" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="H216" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="I216" s="55" t="s">
         <v>501</v>
-      </c>
-      <c r="H216" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="I216" s="55" t="s">
-        <v>500</v>
       </c>
       <c r="J216" s="56" t="s">
         <v>87</v>
@@ -18933,6 +18933,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19190,28 +19211,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19228,29 +19253,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD9EBF-AEDF-41AB-B41B-E76CA4B1E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A255E7D-82CE-404D-826C-39A3CEBFC098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,22 +1916,22 @@
     <t>subject_application_version: 2.2.2</t>
   </si>
   <si>
-    <t>2025-02-13T20:10:53Z</t>
-  </si>
-  <si>
-    <t>793644a7ff92fdd6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.2b720829747709bf00c4c8db1948ad7dd49e249108b408e9c392f7b89feb0633.5df52a8bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-02-13T20:11:03Z</t>
-  </si>
-  <si>
-    <t>4eab32afc56c1c50</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.5f3e81d01d94319fa2d954e7e128e8b37424e9393f83e4974e395ece735bbe5a.b9993e785c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-02-20T19:12:07Z</t>
+  </si>
+  <si>
+    <t>2025-02-20T19:12:22Z</t>
+  </si>
+  <si>
+    <t>318fc6d8259877d6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.e6103ed14d4907cf52c9b61c5ca137e3841f0bb31372ac6e0539c7fc79f7c99d.58ce8d8ec6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>12a64c6cd524e486</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.44b9307c6df926f685b16d153e90e500ced71dc791d7c74b441b1629c578a0b6.c5a5842d3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4349,7 +4349,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H221" sqref="H221"/>
+      <selection pane="bottomRight" activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12347,16 +12347,16 @@
         <v>322</v>
       </c>
       <c r="F215" s="54">
-        <v>45701</v>
+        <v>45708</v>
       </c>
       <c r="G215" s="55" t="s">
         <v>496</v>
       </c>
       <c r="H215" s="55" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I215" s="55" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J215" s="56" t="s">
         <v>87</v>
@@ -12394,16 +12394,16 @@
         <v>323</v>
       </c>
       <c r="F216" s="54">
-        <v>45701</v>
+        <v>45708</v>
       </c>
       <c r="G216" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="H216" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="I216" s="55" t="s">
         <v>499</v>
-      </c>
-      <c r="H216" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="I216" s="55" t="s">
-        <v>501</v>
       </c>
       <c r="J216" s="56" t="s">
         <v>87</v>
@@ -18933,27 +18933,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19211,32 +19190,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19253,4 +19228,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A255E7D-82CE-404D-826C-39A3CEBFC098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78146402-E6D4-419A-B75B-23A47EE4AD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,22 +1916,22 @@
     <t>subject_application_version: 2.2.2</t>
   </si>
   <si>
-    <t>2025-02-20T19:12:07Z</t>
-  </si>
-  <si>
-    <t>2025-02-20T19:12:22Z</t>
-  </si>
-  <si>
-    <t>318fc6d8259877d6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.e6103ed14d4907cf52c9b61c5ca137e3841f0bb31372ac6e0539c7fc79f7c99d.58ce8d8ec6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>12a64c6cd524e486</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.44b9307c6df926f685b16d153e90e500ced71dc791d7c74b441b1629c578a0b6.c5a5842d3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-02-22T08:47:59Z</t>
+  </si>
+  <si>
+    <t>dbe4949416df11ca</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.3c29a9c532bb8abbae1d2a5b66480d9ddd9a33a4c4e73c3ce5f0f1cb135fb5ce.da230d42a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9731acfcc884d215</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.59db6c6472dc7bc77b5cfd2b0fb349b54d40854d07b9b9599b9876535cd75833.b21a82e223^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-02-22T08:48:02Z</t>
   </si>
 </sst>
 </file>
@@ -4346,10 +4346,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K215" sqref="K215"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12347,16 +12347,16 @@
         <v>322</v>
       </c>
       <c r="F215" s="54">
-        <v>45708</v>
+        <v>45710</v>
       </c>
       <c r="G215" s="55" t="s">
         <v>496</v>
       </c>
       <c r="H215" s="55" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I215" s="55" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J215" s="56" t="s">
         <v>87</v>
@@ -12394,16 +12394,16 @@
         <v>323</v>
       </c>
       <c r="F216" s="54">
-        <v>45708</v>
+        <v>45710</v>
       </c>
       <c r="G216" s="55" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H216" s="55" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I216" s="55" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J216" s="56" t="s">
         <v>87</v>
@@ -18933,6 +18933,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19190,28 +19211,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19228,29 +19253,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78146402-E6D4-419A-B75B-23A47EE4AD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD9EBF-AEDF-41AB-B41B-E76CA4B1E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,22 +1916,22 @@
     <t>subject_application_version: 2.2.2</t>
   </si>
   <si>
-    <t>2025-02-22T08:47:59Z</t>
-  </si>
-  <si>
-    <t>dbe4949416df11ca</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.3c29a9c532bb8abbae1d2a5b66480d9ddd9a33a4c4e73c3ce5f0f1cb135fb5ce.da230d42a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9731acfcc884d215</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.59db6c6472dc7bc77b5cfd2b0fb349b54d40854d07b9b9599b9876535cd75833.b21a82e223^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-02-22T08:48:02Z</t>
+    <t>2025-02-13T20:10:53Z</t>
+  </si>
+  <si>
+    <t>793644a7ff92fdd6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.2b720829747709bf00c4c8db1948ad7dd49e249108b408e9c392f7b89feb0633.5df52a8bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-02-13T20:11:03Z</t>
+  </si>
+  <si>
+    <t>4eab32afc56c1c50</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.5f3e81d01d94319fa2d954e7e128e8b37424e9393f83e4974e395ece735bbe5a.b9993e785c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4346,10 +4346,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12347,7 +12347,7 @@
         <v>322</v>
       </c>
       <c r="F215" s="54">
-        <v>45710</v>
+        <v>45701</v>
       </c>
       <c r="G215" s="55" t="s">
         <v>496</v>
@@ -12394,16 +12394,16 @@
         <v>323</v>
       </c>
       <c r="F216" s="54">
-        <v>45710</v>
+        <v>45701</v>
       </c>
       <c r="G216" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="H216" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="I216" s="55" t="s">
         <v>501</v>
-      </c>
-      <c r="H216" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="I216" s="55" t="s">
-        <v>500</v>
       </c>
       <c r="J216" s="56" t="s">
         <v>87</v>

--- a/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.2/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD9EBF-AEDF-41AB-B41B-E76CA4B1E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7E0B66-F50A-43A9-90AB-8220063FB75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1916,22 +1916,22 @@
     <t>subject_application_version: 2.2.2</t>
   </si>
   <si>
-    <t>2025-02-13T20:10:53Z</t>
-  </si>
-  <si>
-    <t>793644a7ff92fdd6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.2b720829747709bf00c4c8db1948ad7dd49e249108b408e9c392f7b89feb0633.5df52a8bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-02-13T20:11:03Z</t>
-  </si>
-  <si>
-    <t>4eab32afc56c1c50</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.5f3e81d01d94319fa2d954e7e128e8b37424e9393f83e4974e395ece735bbe5a.b9993e785c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-02-06T17:08:29Z</t>
+  </si>
+  <si>
+    <t>7ee393d9a2886c68</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.62ace5e45ca07fd937d219e7b19e78f5c1a2cc52812fafea50601f7aed8f0f3d.b2a733f0fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7e50652b13280855</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.adde2fdabc7f3af215d9e4a991e0aae03735a8e4bc019757cdb461465df55e43.5a23422095^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-02-06T17:08:38Z</t>
   </si>
 </sst>
 </file>
@@ -4346,10 +4346,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H221" sqref="H221"/>
+      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12347,7 +12347,7 @@
         <v>322</v>
       </c>
       <c r="F215" s="54">
-        <v>45701</v>
+        <v>45694</v>
       </c>
       <c r="G215" s="55" t="s">
         <v>496</v>
@@ -12394,16 +12394,16 @@
         <v>323</v>
       </c>
       <c r="F216" s="54">
-        <v>45701</v>
+        <v>45694</v>
       </c>
       <c r="G216" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="H216" s="55" t="s">
         <v>499</v>
       </c>
-      <c r="H216" s="55" t="s">
+      <c r="I216" s="55" t="s">
         <v>500</v>
-      </c>
-      <c r="I216" s="55" t="s">
-        <v>501</v>
       </c>
       <c r="J216" s="56" t="s">
         <v>87</v>
@@ -18933,27 +18933,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19211,32 +19190,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19253,4 +19228,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>